--- a/Client/配置表/excels/UnitBase.xlsx
+++ b/Client/配置表/excels/UnitBase.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>int</t>
   </si>
@@ -30,26 +30,28 @@
     <t>名称</t>
   </si>
   <si>
+    <t>预制物</t>
+  </si>
+  <si>
+    <t>动作ID</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>预制物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>prefab</t>
   </si>
   <si>
-    <t>prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>actionID</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t>Warrior</t>
   </si>
   <si>
     <t>晶铠巨兽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Warrior</t>
   </si>
   <si>
     <t>ms_shoufukuilei</t>
@@ -59,21 +61,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -82,25 +79,358 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -108,12 +438,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -124,6 +696,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -133,22 +708,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 3" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -431,19 +1055,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
@@ -463,7 +1087,7 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,391 +1095,407 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
-      <c r="A3" s="6" t="s">
+    <row r="3" ht="16.5" spans="1:9">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="6" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="6">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
         <v>1010</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="6">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:5">
+      <c r="A6" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
         <v>3001</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="4:7">
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="4:7">
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="4:7">
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="4:7">
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="4:7">
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="4:7">
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="4:7">
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="4:7">
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="4:7">
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="4:7">
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="4:7">
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="4:7">
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="4:7">
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="4:7">
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="4:7">
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="4:7">
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="4:7">
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="4:7">
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="2"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="2:10" ht="14.25">
-      <c r="E40" s="4"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="2:10" ht="14.25">
-      <c r="E41" s="4"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="2:10" ht="14.25">
-      <c r="E42" s="4"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="2:10" ht="14.25">
-      <c r="E43" s="4"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="2:10" ht="14.25">
-      <c r="E44" s="4"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="2:10" ht="14.25">
-      <c r="E45" s="4"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="2:10" ht="14.25">
-      <c r="E46" s="4"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="2:10" ht="14.25">
-      <c r="E47" s="4"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="5:10">
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="5:10">
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="5:10" ht="14.25">
-      <c r="E51" s="4"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="5:10">
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="5:10">
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="5:10">
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="5:10">
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="5:10">
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="5:10">
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="5:10">
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="5:10">
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="5:10">
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="5:10">
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="5:10">
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="5:10">
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="5:10">
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="4:5">
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="4:5">
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="4:5">
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="4:5">
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="4:5">
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="4:5">
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="4:5">
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="4:5">
-      <c r="E72" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" ht="14.25" spans="5:10">
+      <c r="E40" s="5"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" ht="14.25" spans="5:10">
+      <c r="E41" s="5"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" ht="14.25" spans="5:10">
+      <c r="E42" s="5"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" ht="14.25" spans="5:10">
+      <c r="E43" s="5"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" ht="14.25" spans="5:10">
+      <c r="E44" s="5"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" ht="14.25" spans="5:10">
+      <c r="E45" s="5"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" ht="14.25" spans="5:10">
+      <c r="E46" s="5"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" ht="14.25" spans="5:10">
+      <c r="E47" s="5"/>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="5:5">
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" ht="14.25" spans="5:10">
+      <c r="E51" s="5"/>
+      <c r="J51" s="7"/>
+    </row>
+    <row r="52" spans="5:5">
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="5:5">
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="5:5">
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="5:5">
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="5:5">
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="5:5">
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="5:5">
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="5:5">
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="5:5">
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="5:5">
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="5:5">
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="5:5">
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="5:5">
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="5:5">
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="5:5">
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="5:5">
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="4:5">
-      <c r="D73" s="2"/>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="4:5">
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="4:5">
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="4:5">
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="4:5">
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="4:5">
-      <c r="E78" s="4"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="5:5">
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="5:5">
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="5:5">
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="5:5">
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="5:5">
+      <c r="E78" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/配置表/excels/UnitBase.xlsx
+++ b/Client/配置表/excels/UnitBase.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>int</t>
   </si>
@@ -55,19 +55,17 @@
   </si>
   <si>
     <t>ms_shoufukuilei</t>
+  </si>
+  <si>
+    <t>道剑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,345 +90,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -438,251 +112,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -708,65 +140,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 3" xfId="49"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1055,16 +440,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1087,7 +472,7 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1095,7 +480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1111,7 +496,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1127,7 +512,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -1142,7 +527,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -1157,49 +542,60 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="4:5">
-      <c r="D7" s="4"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1001</v>
+      </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="4:5">
+    <row r="8" spans="1:9">
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="4:5">
+    <row r="9" spans="1:9">
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="4:5">
+    <row r="10" spans="1:9">
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="4:5">
+    <row r="11" spans="1:9">
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="4:5">
+    <row r="12" spans="1:9">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="4:7">
+    <row r="13" spans="1:9">
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="4:7">
+    <row r="14" spans="1:9">
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="4:7">
+    <row r="15" spans="1:9">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="4:7">
+    <row r="16" spans="1:9">
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1301,201 +697,195 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="4:7">
+    <row r="33" spans="2:10">
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:10">
       <c r="B34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="4:7">
+    <row r="35" spans="2:10">
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="5:5">
+    <row r="36" spans="2:10">
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="5:5">
+    <row r="37" spans="2:10">
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="5:5">
+    <row r="38" spans="2:10">
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="5:5">
+    <row r="39" spans="2:10">
       <c r="E39" s="5"/>
     </row>
-    <row r="40" ht="14.25" spans="5:10">
+    <row r="40" spans="2:10" ht="14.25">
       <c r="E40" s="5"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" ht="14.25" spans="5:10">
+    <row r="41" spans="2:10" ht="14.25">
       <c r="E41" s="5"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" ht="14.25" spans="5:10">
+    <row r="42" spans="2:10" ht="14.25">
       <c r="E42" s="5"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" ht="14.25" spans="5:10">
+    <row r="43" spans="2:10" ht="14.25">
       <c r="E43" s="5"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" ht="14.25" spans="5:10">
+    <row r="44" spans="2:10" ht="14.25">
       <c r="E44" s="5"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" ht="14.25" spans="5:10">
+    <row r="45" spans="2:10" ht="14.25">
       <c r="E45" s="5"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" ht="14.25" spans="5:10">
+    <row r="46" spans="2:10" ht="14.25">
       <c r="E46" s="5"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" ht="14.25" spans="5:10">
+    <row r="47" spans="2:10" ht="14.25">
       <c r="E47" s="5"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="5:5">
+    <row r="48" spans="2:10">
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="5:5">
+    <row r="49" spans="5:10">
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="5:5">
+    <row r="50" spans="5:10">
       <c r="E50" s="5"/>
     </row>
-    <row r="51" ht="14.25" spans="5:10">
+    <row r="51" spans="5:10" ht="14.25">
       <c r="E51" s="5"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="5:5">
+    <row r="52" spans="5:10">
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="5:5">
+    <row r="53" spans="5:10">
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="5:5">
+    <row r="54" spans="5:10">
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="5:5">
+    <row r="55" spans="5:10">
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="5:5">
+    <row r="56" spans="5:10">
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="5:5">
+    <row r="57" spans="5:10">
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="5:5">
+    <row r="58" spans="5:10">
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="5:5">
+    <row r="59" spans="5:10">
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="5:5">
+    <row r="60" spans="5:10">
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="5:5">
+    <row r="61" spans="5:10">
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="5:5">
+    <row r="62" spans="5:10">
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="5:5">
+    <row r="63" spans="5:10">
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="5:5">
+    <row r="64" spans="5:10">
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="5:5">
+    <row r="65" spans="4:5">
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="5:5">
+    <row r="66" spans="4:5">
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="5:5">
+    <row r="67" spans="4:5">
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="5:5">
+    <row r="68" spans="4:5">
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="5:5">
+    <row r="69" spans="4:5">
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="5:5">
+    <row r="70" spans="4:5">
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="5:5">
+    <row r="71" spans="4:5">
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="5:5">
+    <row r="72" spans="4:5">
       <c r="E72" s="5"/>
     </row>
     <row r="73" spans="4:5">
       <c r="D73" s="3"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="5:5">
+    <row r="74" spans="4:5">
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="5:5">
+    <row r="75" spans="4:5">
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="5:5">
+    <row r="76" spans="4:5">
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="5:5">
+    <row r="77" spans="4:5">
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="5:5">
+    <row r="78" spans="4:5">
       <c r="E78" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/配置表/excels/UnitBase.xlsx
+++ b/Client/配置表/excels/UnitBase.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>int</t>
   </si>
@@ -56,16 +56,18 @@
   <si>
     <t>ms_shoufukuilei</t>
   </si>
-  <si>
-    <t>道剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,21 +92,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -112,9 +438,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -140,18 +708,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 3" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -440,16 +1055,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -472,7 +1087,7 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -496,7 +1111,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -512,7 +1127,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" ht="16.5" spans="1:5">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -527,7 +1142,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" ht="16.5" spans="1:5">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -542,60 +1157,49 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>1003</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1001</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1001</v>
-      </c>
+    <row r="7" spans="4:5">
+      <c r="D7" s="4"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="4:5">
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="4:5">
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="4:5">
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="4:5">
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="4:5">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="4:7">
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="4:7">
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="4:7">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="4:7">
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -697,195 +1301,201 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="4:7">
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:7">
       <c r="B34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="4:7">
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="5:5">
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="5:5">
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="5:5">
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="5:5">
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="2:10" ht="14.25">
+    <row r="40" ht="14.25" spans="5:10">
       <c r="E40" s="5"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="2:10" ht="14.25">
+    <row r="41" ht="14.25" spans="5:10">
       <c r="E41" s="5"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="2:10" ht="14.25">
+    <row r="42" ht="14.25" spans="5:10">
       <c r="E42" s="5"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="2:10" ht="14.25">
+    <row r="43" ht="14.25" spans="5:10">
       <c r="E43" s="5"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="2:10" ht="14.25">
+    <row r="44" ht="14.25" spans="5:10">
       <c r="E44" s="5"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="2:10" ht="14.25">
+    <row r="45" ht="14.25" spans="5:10">
       <c r="E45" s="5"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="2:10" ht="14.25">
+    <row r="46" ht="14.25" spans="5:10">
       <c r="E46" s="5"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="2:10" ht="14.25">
+    <row r="47" ht="14.25" spans="5:10">
       <c r="E47" s="5"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="5:5">
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="5:10">
+    <row r="49" spans="5:5">
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="5:10">
+    <row r="50" spans="5:5">
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="5:10" ht="14.25">
+    <row r="51" ht="14.25" spans="5:10">
       <c r="E51" s="5"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="5:10">
+    <row r="52" spans="5:5">
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="5:10">
+    <row r="53" spans="5:5">
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="5:10">
+    <row r="54" spans="5:5">
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="5:10">
+    <row r="55" spans="5:5">
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="5:10">
+    <row r="56" spans="5:5">
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="5:10">
+    <row r="57" spans="5:5">
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="5:10">
+    <row r="58" spans="5:5">
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="5:10">
+    <row r="59" spans="5:5">
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="5:10">
+    <row r="60" spans="5:5">
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="5:10">
+    <row r="61" spans="5:5">
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="5:10">
+    <row r="62" spans="5:5">
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="5:10">
+    <row r="63" spans="5:5">
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="5:10">
+    <row r="64" spans="5:5">
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="4:5">
+    <row r="65" spans="5:5">
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="4:5">
+    <row r="66" spans="5:5">
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="4:5">
+    <row r="67" spans="5:5">
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="4:5">
+    <row r="68" spans="5:5">
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="4:5">
+    <row r="69" spans="5:5">
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="4:5">
+    <row r="70" spans="5:5">
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="4:5">
+    <row r="71" spans="5:5">
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="4:5">
+    <row r="72" spans="5:5">
       <c r="E72" s="5"/>
     </row>
     <row r="73" spans="4:5">
       <c r="D73" s="3"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="4:5">
+    <row r="74" spans="5:5">
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="4:5">
+    <row r="75" spans="5:5">
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="4:5">
+    <row r="76" spans="5:5">
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="4:5">
+    <row r="77" spans="5:5">
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="4:5">
+    <row r="78" spans="5:5">
       <c r="E78" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/配置表/excels/UnitBase.xlsx
+++ b/Client/配置表/excels/UnitBase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>int</t>
   </si>
@@ -58,6 +58,14 @@
   </si>
   <si>
     <t>道剑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>匕首女</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0002</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +457,7 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -558,7 +566,18 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="D8" s="4"/>
+      <c r="A8" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10001</v>
+      </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:9">

--- a/Client/配置表/excels/UnitBase.xlsx
+++ b/Client/配置表/excels/UnitBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>int</t>
   </si>
@@ -66,6 +66,22 @@
   </si>
   <si>
     <t>m0002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑客</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>b0001</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +473,7 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -581,11 +597,33 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="D9" s="4"/>
+      <c r="A9" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10002</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="D10" s="4"/>
+      <c r="A10" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4">
+        <v>10003</v>
+      </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:9">

--- a/Client/配置表/excels/UnitBase.xlsx
+++ b/Client/配置表/excels/UnitBase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>int</t>
   </si>
@@ -58,55 +58,52 @@
   </si>
   <si>
     <t>道剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>匕首女</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>m0002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>剑客</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>m0001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>boss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>b0001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -118,6 +115,25 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,33 +157,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,10 +483,10 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
@@ -496,7 +506,7 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,418 +514,430 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="2">
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>1001</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>1010</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="2">
+      <c r="E5" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>1002</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>3001</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="E6" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>1001</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>1001</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="E7" s="1">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>10001</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="E8" s="1">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>10002</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="E9" s="1">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>10003</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="E10" s="1">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="4:7">
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="4:7">
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="4:7">
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="4:7">
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="4:7">
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="4:7">
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="4:7">
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="4:7">
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="4:7">
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="4:7">
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="4:7">
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="4:7">
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="4:7">
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="4:7">
-      <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="4:7">
-      <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="2:10" ht="14.25">
-      <c r="E40" s="5"/>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="2:10" ht="14.25">
-      <c r="E41" s="5"/>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="2:10" ht="14.25">
-      <c r="E42" s="5"/>
-      <c r="J42" s="7"/>
-    </row>
-    <row r="43" spans="2:10" ht="14.25">
-      <c r="E43" s="5"/>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="2:10" ht="14.25">
-      <c r="E44" s="5"/>
-      <c r="J44" s="7"/>
-    </row>
-    <row r="45" spans="2:10" ht="14.25">
-      <c r="E45" s="5"/>
-      <c r="J45" s="7"/>
-    </row>
-    <row r="46" spans="2:10" ht="14.25">
-      <c r="E46" s="5"/>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="2:10" ht="14.25">
-      <c r="E47" s="5"/>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="E48" s="5"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="4:10">
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="4:10">
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="4:10">
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="4:10">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="4:10">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="4:10">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="4:10">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="4:10" ht="17.25">
+      <c r="E40" s="3"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="4:10" ht="17.25">
+      <c r="E41" s="3"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="4:10" ht="17.25">
+      <c r="E42" s="3"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="4:10" ht="17.25">
+      <c r="E43" s="3"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="4:10" ht="17.25">
+      <c r="E44" s="3"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="4:10" ht="17.25">
+      <c r="E45" s="3"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="4:10" ht="17.25">
+      <c r="E46" s="3"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="4:10" ht="17.25">
+      <c r="E47" s="3"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="4:10">
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="5:10">
-      <c r="E49" s="5"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="5:10">
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="5:10" ht="14.25">
-      <c r="E51" s="5"/>
-      <c r="J51" s="7"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="5:10" ht="17.25">
+      <c r="E51" s="3"/>
+      <c r="J51" s="5"/>
     </row>
     <row r="52" spans="5:10">
-      <c r="E52" s="5"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="5:10">
-      <c r="E53" s="5"/>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="5:10">
-      <c r="E54" s="5"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="5:10">
-      <c r="E55" s="5"/>
+      <c r="E55" s="3"/>
     </row>
     <row r="56" spans="5:10">
-      <c r="E56" s="5"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" spans="5:10">
-      <c r="E57" s="5"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="5:10">
-      <c r="E58" s="5"/>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="5:10">
-      <c r="E59" s="5"/>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" spans="5:10">
-      <c r="E60" s="5"/>
+      <c r="E60" s="3"/>
     </row>
     <row r="61" spans="5:10">
-      <c r="E61" s="5"/>
+      <c r="E61" s="3"/>
     </row>
     <row r="62" spans="5:10">
-      <c r="E62" s="5"/>
+      <c r="E62" s="3"/>
     </row>
     <row r="63" spans="5:10">
-      <c r="E63" s="5"/>
+      <c r="E63" s="3"/>
     </row>
     <row r="64" spans="5:10">
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="4:5">
-      <c r="E65" s="5"/>
-    </row>
-    <row r="66" spans="4:5">
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="4:5">
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="4:5">
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="4:5">
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="4:5">
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="4:5">
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="4:5">
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="4:5">
-      <c r="D73" s="3"/>
-      <c r="E73" s="5"/>
-    </row>
-    <row r="74" spans="4:5">
-      <c r="E74" s="5"/>
-    </row>
-    <row r="75" spans="4:5">
-      <c r="E75" s="5"/>
-    </row>
-    <row r="76" spans="4:5">
-      <c r="E76" s="5"/>
-    </row>
-    <row r="77" spans="4:5">
-      <c r="E77" s="5"/>
-    </row>
-    <row r="78" spans="4:5">
-      <c r="E78" s="5"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="5:5">
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="5:5">
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="5:5">
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="5:5">
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="5:5">
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="5:5">
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="5:5">
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="5:5">
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="5:5">
+      <c r="E78" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -927,7 +949,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -941,7 +963,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Client/配置表/excels/UnitBase.xlsx
+++ b/Client/配置表/excels/UnitBase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>int</t>
   </si>
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai主角</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +487,7 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -651,8 +655,21 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>20001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1003</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="D12" s="2"/>

--- a/Client/配置表/excels/UnitBase.xlsx
+++ b/Client/配置表/excels/UnitBase.xlsx
@@ -487,7 +487,7 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -662,7 +662,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="1">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D11" s="2">
         <v>20001</v>
